--- a/wash_P/JPN.xlsx
+++ b/wash_P/JPN.xlsx
@@ -34157,7 +34157,7 @@
         <v>0</v>
       </c>
       <c r="DR11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS11" t="n">
         <v>0</v>
@@ -74375,7 +74375,7 @@
         <v>0</v>
       </c>
       <c r="AMB23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AMC23" t="n">
         <v>0</v>
@@ -81338,7 +81338,7 @@
         <v>0</v>
       </c>
       <c r="HA26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB26" t="n">
         <v>0</v>
@@ -89343,7 +89343,7 @@
         <v>0</v>
       </c>
       <c r="ADL28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADM28" t="n">
         <v>0</v>
@@ -89436,7 +89436,7 @@
         <v>0</v>
       </c>
       <c r="AEQ28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AER28" t="n">
         <v>0</v>
@@ -92576,7 +92576,7 @@
         <v>0</v>
       </c>
       <c r="AEU29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEV29" t="n">
         <v>0</v>
